--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AC/15/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AC/15/seed4/result_data_KNN.xlsx
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.098</v>
+        <v>-13.253</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.812</v>
+        <v>-21.831</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.372</v>
+        <v>-11.555</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.824</v>
+        <v>-12.89</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.074</v>
+        <v>-22.27</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.734</v>
+        <v>-20.558</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.432</v>
+        <v>-13.131</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -887,13 +887,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.674</v>
+        <v>-21.854</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.296</v>
+        <v>-13.684</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-12.27</v>
+        <v>-11.736</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-20.43</v>
+        <v>-19.823</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.606</v>
+        <v>-13.426</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1080,7 +1080,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-13.224</v>
+        <v>-13.393</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.31</v>
+        <v>-11.591</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.322</v>
+        <v>-11.175</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.48</v>
+        <v>-13.752</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1601,13 +1601,13 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.668</v>
+        <v>-21.652</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.666</v>
+        <v>-11.312</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1624,7 +1624,7 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.994</v>
+        <v>-12.03</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.732</v>
+        <v>-20.306</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.62</v>
+        <v>-19.854</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-12.756</v>
+        <v>-13.418</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.106</v>
+        <v>-21.984</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,13 +1839,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.742</v>
+        <v>-21.641</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.2</v>
+        <v>-13.042</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.858</v>
+        <v>-21.56</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.746</v>
+        <v>-13.419</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
